--- a/Benchmark Managment/Config.xlsx
+++ b/Benchmark Managment/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raffael\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AEB857-3D36-429D-8FE3-E908BF9370A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2447534-3821-4EDE-A607-52FABAF01D01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,7 +582,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Benchmark Managment/Config.xlsx
+++ b/Benchmark Managment/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2447534-3821-4EDE-A607-52FABAF01D01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645823A7-56E0-481F-AC59-A1126F4CEFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,12 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,19 +36,28 @@
     <t>Number</t>
   </si>
   <si>
+    <t>Firmware</t>
+  </si>
+  <si>
     <t>Dev ID</t>
   </si>
   <si>
-    <t>Firmware</t>
+    <t>Group ID</t>
+  </si>
+  <si>
+    <t>BLE_MESH_Server_v1_0.zip</t>
+  </si>
+  <si>
+    <t>BLE_MESH_Client_v1_0.zip</t>
   </si>
   <si>
     <t>Firmware Selection</t>
   </si>
   <si>
-    <t>BLE_MESH_Server.zip</t>
-  </si>
-  <si>
-    <t>BLE_MESH_Client.zip</t>
+    <t>Device ID</t>
+  </si>
+  <si>
+    <t>Groups</t>
   </si>
   <si>
     <t>7928FDBD</t>
@@ -188,15 +196,6 @@
   </si>
   <si>
     <t>5BEB2713</t>
-  </si>
-  <si>
-    <t>Device ID</t>
-  </si>
-  <si>
-    <t>Group ID</t>
-  </si>
-  <si>
-    <t>Groups</t>
   </si>
   <si>
     <t>E22399C0</t>
@@ -252,10 +251,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -271,46 +270,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F41D2E62-5576-4B92-808D-650249C333E8}" name="Tabelle1" displayName="Tabelle1" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{E8F225C9-E109-40A5-A060-CEE1FFF621E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{82C71D8A-1E0E-434A-B888-AD7FB4D5B036}" name="Number"/>
-    <tableColumn id="3" xr3:uid="{F6EE7D8C-EB89-4B86-9363-A7B313E1392F}" name="Firmware"/>
-    <tableColumn id="2" xr3:uid="{498B939C-E620-48F0-9448-040C048D9BB6}" name="Dev ID">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dev ID">
       <calculatedColumnFormula>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3D8F49F1-11DB-4754-BF7C-DA6A0AE1FF34}" name="Group ID"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Group ID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80AD8C20-8B1F-4113-A188-02202A6BB83D}" name="Tabelle2" displayName="Tabelle2" ref="A1:A3" totalsRowShown="0">
-  <autoFilter ref="A1:A3" xr:uid="{1DE6FB99-F4DA-4395-BFAB-361B3BAE7199}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:A3" totalsRowShown="0">
+  <autoFilter ref="A1:A3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7BFD74C9-561C-4186-92B6-F2A468FE90D4}" name="Firmware Selection"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Firmware Selection"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C43BF6C0-E338-4063-B964-9B4D3BEC38D4}" name="Tabelle3" displayName="Tabelle3" ref="C1:D50" totalsRowShown="0">
-  <autoFilter ref="C1:D50" xr:uid="{FE5355E5-1503-4887-942E-5816A905D50B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D50" totalsRowShown="0">
+  <autoFilter ref="C1:D50" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BB7CB3B1-8364-4F4C-9236-5CB115912E08}" name="Number" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{C20D9C25-9FDC-436D-9A85-5646144E1F55}" name="Device ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2BFD9ACE-60CF-463A-98A4-E4897B429436}" name="Tabelle4" displayName="Tabelle4" ref="F1:F26" totalsRowShown="0">
-  <autoFilter ref="F1:F26" xr:uid="{0460A94D-2C98-444D-AAD3-A229C90CB879}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle4" displayName="Tabelle4" ref="F1:F26" totalsRowShown="0">
+  <autoFilter ref="F1:F26" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{53C922FD-2C3D-4465-9A5E-57CCE27AB690}" name="Groups"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Groups"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -582,13 +581,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -598,13 +597,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,14 +653,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>DC94CD5B</v>
+        <v>70AAAF03</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -672,65 +671,35 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6534A895-76C0-42F8-AE51-845A87D97821}">
-          <x14:formula1>
-            <xm:f>Constants!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4182F387-7342-452B-905F-DABE7DDA9CE5}">
-          <x14:formula1>
-            <xm:f>Constants!$C$2:$C$49</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2 A4:A5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9EA67AD2-9979-4809-BE0E-0F0B22DE784A}">
-          <x14:formula1>
-            <xm:f>Constants!$F$2:$F$26</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B70BA6F-6D67-46A6-BB10-656293D011FE}">
-          <x14:formula1>
-            <xm:f>Constants!$C$2:$C$50</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1049228-BD22-4667-87B4-4E4ABC74D3A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -741,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -755,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -766,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -777,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -788,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -799,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -810,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -821,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -832,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -843,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -854,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -865,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -876,7 +845,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -887,7 +856,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -898,7 +867,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -909,7 +878,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -920,7 +889,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -931,7 +900,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -942,7 +911,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -953,7 +922,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -964,7 +933,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -975,7 +944,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -986,7 +955,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -997,7 +966,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -1019,7 +988,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
@@ -1027,7 +996,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
@@ -1035,7 +1004,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
@@ -1043,7 +1012,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
@@ -1051,7 +1020,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
@@ -1059,7 +1028,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
@@ -1067,7 +1036,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
@@ -1083,7 +1052,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
@@ -1091,7 +1060,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
@@ -1099,7 +1068,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
@@ -1107,7 +1076,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
@@ -1115,7 +1084,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
@@ -1123,7 +1092,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
@@ -1131,7 +1100,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
@@ -1139,7 +1108,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
@@ -1147,7 +1116,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
@@ -1155,7 +1124,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
@@ -1163,7 +1132,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
@@ -1171,7 +1140,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
@@ -1179,7 +1148,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
@@ -1187,7 +1156,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
@@ -1195,7 +1164,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">

--- a/Benchmark Managment/Config.xlsx
+++ b/Benchmark Managment/Config.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645823A7-56E0-481F-AC59-A1126F4CEFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB250986-CC51-4B24-BD56-88901B57195C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
+    <sheet name="11_26PM on July 27, 2020" sheetId="3" r:id="rId3"/>
+    <sheet name="02_33AM on July 28, 2020" sheetId="4" r:id="rId4"/>
+    <sheet name="02_49AM on July 28, 2020" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="180">
   <si>
     <t>Number</t>
   </si>
@@ -199,19 +202,409 @@
   </si>
   <si>
     <t>E22399C0</t>
+  </si>
+  <si>
+    <t>Message ID</t>
+  </si>
+  <si>
+    <t>Timestamp (us)</t>
+  </si>
+  <si>
+    <t>Ack Timestamp (us)</t>
+  </si>
+  <si>
+    <t>Hops</t>
+  </si>
+  <si>
+    <t>RSSI</t>
+  </si>
+  <si>
+    <t>Source Address</t>
+  </si>
+  <si>
+    <t>Destination Address</t>
+  </si>
+  <si>
+    <t>Group Address</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0628767456</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>340a</t>
+  </si>
+  <si>
+    <t>c001</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0634678000</t>
+  </si>
+  <si>
+    <t>0630072168</t>
+  </si>
+  <si>
+    <t>39ed</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0631103980</t>
+  </si>
+  <si>
+    <t>0138824224</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>c000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0142844675</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>0144609430</t>
+  </si>
+  <si>
+    <t>0141236122</t>
+  </si>
+  <si>
+    <t>0141239403</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0141665575</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0142713895</t>
+  </si>
+  <si>
+    <t>0142719534</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0142937405</t>
+  </si>
+  <si>
+    <t>0143700140</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0143776928</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0145461735</t>
+  </si>
+  <si>
+    <t>0147051266</t>
+  </si>
+  <si>
+    <t>0138817576</t>
+  </si>
+  <si>
+    <t>0144959304</t>
+  </si>
+  <si>
+    <t>0138827856</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>0141595373</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>0143715551</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>0146882777</t>
+  </si>
+  <si>
+    <t>0428311577</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>0428604773</t>
+  </si>
+  <si>
+    <t>0428680575</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>0428785604</t>
+  </si>
+  <si>
+    <t>0429138921</t>
+  </si>
+  <si>
+    <t>0430145556</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>0430772690</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>0430948785</t>
+  </si>
+  <si>
+    <t>0431092157</t>
+  </si>
+  <si>
+    <t>0431380121</t>
+  </si>
+  <si>
+    <t>0432153801</t>
+  </si>
+  <si>
+    <t>0432645422</t>
+  </si>
+  <si>
+    <t>0432731802</t>
+  </si>
+  <si>
+    <t>0433358240</t>
+  </si>
+  <si>
+    <t>0433433659</t>
+  </si>
+  <si>
+    <t>0433689199</t>
+  </si>
+  <si>
+    <t>0433765749</t>
+  </si>
+  <si>
+    <t>0436408958</t>
+  </si>
+  <si>
+    <t>0437279426</t>
+  </si>
+  <si>
+    <t>0437834741</t>
+  </si>
+  <si>
+    <t>0428297856</t>
+  </si>
+  <si>
+    <t>0428639321</t>
+  </si>
+  <si>
+    <t>0429125989</t>
+  </si>
+  <si>
+    <t>0430759964</t>
+  </si>
+  <si>
+    <t>0431080094</t>
+  </si>
+  <si>
+    <t>0431358389</t>
+  </si>
+  <si>
+    <t>0432633117</t>
+  </si>
+  <si>
+    <t>0433345370</t>
+  </si>
+  <si>
+    <t>0433731743</t>
+  </si>
+  <si>
+    <t>0437264135</t>
+  </si>
+  <si>
+    <t>0428598222</t>
+  </si>
+  <si>
+    <t>0428779066</t>
+  </si>
+  <si>
+    <t>0430130797</t>
+  </si>
+  <si>
+    <t>0430942858</t>
+  </si>
+  <si>
+    <t>0432148186</t>
+  </si>
+  <si>
+    <t>0432652047</t>
+  </si>
+  <si>
+    <t>0433368547</t>
+  </si>
+  <si>
+    <t>0433683163</t>
+  </si>
+  <si>
+    <t>0436403506</t>
+  </si>
+  <si>
+    <t>0437828598</t>
+  </si>
+  <si>
+    <t>0428305897</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>0428604187</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>0428679981</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>0428785003</t>
+  </si>
+  <si>
+    <t>0429133635</t>
+  </si>
+  <si>
+    <t>0430136756</t>
+  </si>
+  <si>
+    <t>0430767380</t>
+  </si>
+  <si>
+    <t>0430948157</t>
+  </si>
+  <si>
+    <t>0431087240</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>0431366101</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>0432153153</t>
+  </si>
+  <si>
+    <t>0432641168</t>
+  </si>
+  <si>
+    <t>0432731141</t>
+  </si>
+  <si>
+    <t>0433352721</t>
+  </si>
+  <si>
+    <t>0433428159</t>
+  </si>
+  <si>
+    <t>0433688392</t>
+  </si>
+  <si>
+    <t>0433760238</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>0436408919</t>
+  </si>
+  <si>
+    <t>0437271169</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>0437847397</t>
+  </si>
+  <si>
+    <t>188</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,7 +615,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -230,11 +623,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,6 +682,15 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,4 +1630,4775 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G55" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" t="s">
+        <v>106</v>
+      </c>
+      <c r="G58" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" t="s">
+        <v>106</v>
+      </c>
+      <c r="G62" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" t="s">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" t="s">
+        <v>106</v>
+      </c>
+      <c r="G63" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" t="s">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" t="s">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" t="s">
+        <v>152</v>
+      </c>
+      <c r="M22">
+        <f>L22-K22</f>
+        <v>8041</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23">
+        <f>L23-K23</f>
+        <v>13721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" t="s">
+        <v>164</v>
+      </c>
+      <c r="G50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s">
+        <v>166</v>
+      </c>
+      <c r="G51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G58" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" t="s">
+        <v>177</v>
+      </c>
+      <c r="G60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" t="s">
+        <v>179</v>
+      </c>
+      <c r="G61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Benchmark Managment/Config.xlsx
+++ b/Benchmark Managment/Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Config" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02_33AM on July 28, 2020" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02_49AM on July 28, 2020" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08_51AM on July 28, 2020" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08_56AM on July 28, 2020" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -21,13 +22,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -59,12 +66,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -123,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -144,6 +166,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -545,8 +570,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -5869,7 +5894,7 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
@@ -8673,52 +8698,2813 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Message ID</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Timestamp (us)</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Ack Timestamp (us)</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>Hops</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>RSSI</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>Source Address</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Destination Address</t>
+        </is>
+      </c>
+      <c r="I1" s="7" t="inlineStr">
+        <is>
+          <t>Group Address</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>035935427</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>036162273</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>036857657</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>037706691</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>037778482</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>038097296</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>038169483</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>038226086</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>038521889</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>040691602</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>041259486</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>042369095</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>042526794</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>042957310</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>043154612</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>043515665</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>043763093</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>044256845</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>044353947</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>045397660</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>035927182</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>036850061</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>037759852</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>038099320</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>038146111</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>038513476</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>041251115</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>042361425</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>043755203</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>044249029</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>036156632</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>037701112</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>038061850</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>040685880</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>042521698</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>042951636</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>043148539</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>043510161</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>044264076</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>045392433</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>035934595</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>036161820</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>036857198</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>037706225</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>037778007</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>038096813</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>038168991</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>038225978</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>038521386</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>040691097</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>041258864</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>042368469</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>042526247</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>042956670</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>043153965</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>043515010</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>043762428</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>044256174</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>044353268</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>045396978</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Message ID</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Timestamp (us)</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Ack Timestamp (us)</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Hops</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>RSSI</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Source Address</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t>Destination Address</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
         <is>
           <t>Group Address</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="8" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -8728,7 +11514,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>035935427</t>
+          <t>067622167</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8743,2647 +11529,2647 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>-76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>067859321</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>340a</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>068405600</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>068436959</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>036162273</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>069914291</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>069976111</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>071468857</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>071835408</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>072488405</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>072817723</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>074239049</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>074652627</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>075244705</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>076055241</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>076473534</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>076641897</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>076804807</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>077026621</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>077089352</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>077301304</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>067851473</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>036857657</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>068402002</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>340a</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>069905826</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>069933804</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>071460637</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>072810250</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>074644971</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>075237160</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>076047233</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>076465685</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>067615744</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>037706691</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>068399531</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>037778482</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>071829456</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>072482233</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>074232943</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>076636289</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>076765056</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>077021389</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>077057982</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>077295286</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>067620996</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>067858917</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>340a</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>068405186</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>068461196</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>038097296</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>069913877</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>038169483</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>070000709</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-77</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>340a</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>038226086</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>071468041</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-72</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>340a</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>071834952</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-71</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>072487964</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-76</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>038521889</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>072817163</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-71</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>340a</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>040691602</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>041259486</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>074238484</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-75</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>074652056</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>340a</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>042369095</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>075244126</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-71</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>340a</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>042526794</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>076054660</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>076472948</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>340a</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>042957310</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>043154612</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>076641305</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>-71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>076799980</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>-71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>043515665</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>077026015</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>-69</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>043763093</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>077088356</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>-69</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>39ed</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>c000</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>044256845</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>044353947</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>045397660</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>035927182</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>036850061</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>037759852</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>038099320</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>038146111</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>038513476</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>041251115</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>042361425</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>043755203</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>044249029</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>036156632</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>037701112</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>038061850</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>040685880</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>042521698</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>042951636</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="7" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>043148539</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="7" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>043510161</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="7" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>044264076</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="7" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>045392433</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>035934595</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="7" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>036161820</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="7" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>036857198</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="7" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>037706225</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="7" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>037778007</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="7" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>038096813</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="7" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>038168991</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="7" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>038225978</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="7" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>038521386</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="7" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>040691097</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>041258864</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="7" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>042368469</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="7" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>042526247</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="7" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>042956670</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="7" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>043153965</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="7" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>043515010</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="7" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>043762428</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="7" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>044256174</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>340a</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="7" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>044353268</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>39ed</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>c000</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="7" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>045396978</t>
+          <t>077300689</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -11398,7 +14184,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>-76</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">

--- a/Benchmark Managment/Config.xlsx
+++ b/Benchmark Managment/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Managment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\P6_Software\Benchmark Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5820A8FE-F470-40EE-9434-5A7D1B5CBC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C64BDE1-513A-472E-9C46-85EAA7C3B036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Number</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>E22399C0</t>
+  </si>
+  <si>
+    <t>A0469D49</t>
+  </si>
+  <si>
+    <t>client_zigbee_dfu_package.zip</t>
+  </si>
+  <si>
+    <t>server_zigbee_dfu_package.zip</t>
+  </si>
+  <si>
+    <t>A2068169</t>
   </si>
 </sst>
 </file>
@@ -270,8 +282,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
@@ -285,8 +297,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:A3" totalsRowShown="0">
-  <autoFilter ref="A1:A3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:A5" totalsRowShown="0">
+  <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Firmware Selection"/>
   </tableColumns>
@@ -295,8 +307,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D50" totalsRowShown="0">
-  <autoFilter ref="C1:D50" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D52" totalsRowShown="0">
+  <autoFilter ref="C1:D52" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="0"/>
@@ -578,21 +590,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,63 +618,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>7928FDBD</v>
+        <v>A4F21E13</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>E22399C0</v>
+        <v>E1A6E5BF</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>5BEB2713</v>
+        <v>A0469D49</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>70AAAF03</v>
-      </c>
-      <c r="D5">
         <v>1</v>
       </c>
     </row>
@@ -671,24 +668,36 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2A9CFBD8-98C6-47B7-83CE-7D8A4658D465}">
+          <x14:formula1>
+            <xm:f>Constants!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -702,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -716,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -730,7 +739,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
@@ -741,7 +753,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
@@ -752,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -763,7 +778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>6</v>
       </c>
@@ -774,7 +789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>7</v>
       </c>
@@ -785,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>8</v>
       </c>
@@ -796,7 +811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>9</v>
       </c>
@@ -807,7 +822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10</v>
       </c>
@@ -818,7 +833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>11</v>
       </c>
@@ -829,7 +844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>12</v>
       </c>
@@ -840,7 +855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>13</v>
       </c>
@@ -851,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>14</v>
       </c>
@@ -862,7 +877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>15</v>
       </c>
@@ -873,7 +888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>16</v>
       </c>
@@ -884,7 +899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>17</v>
       </c>
@@ -895,7 +910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>18</v>
       </c>
@@ -906,7 +921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>19</v>
       </c>
@@ -917,7 +932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>20</v>
       </c>
@@ -928,7 +943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>21</v>
       </c>
@@ -939,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>22</v>
       </c>
@@ -950,7 +965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>23</v>
       </c>
@@ -961,7 +976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>24</v>
       </c>
@@ -972,7 +987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>25</v>
       </c>
@@ -983,7 +998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>26</v>
       </c>
@@ -991,7 +1006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>27</v>
       </c>
@@ -999,7 +1014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>28</v>
       </c>
@@ -1007,7 +1022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>29</v>
       </c>
@@ -1015,7 +1030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>30</v>
       </c>
@@ -1023,7 +1038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>31</v>
       </c>
@@ -1031,7 +1046,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>32</v>
       </c>
@@ -1039,7 +1054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>33</v>
       </c>
@@ -1047,7 +1062,7 @@
         <v>62688236</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>34</v>
       </c>
@@ -1055,7 +1070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>35</v>
       </c>
@@ -1063,7 +1078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>36</v>
       </c>
@@ -1071,7 +1086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>37</v>
       </c>
@@ -1079,7 +1094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>38</v>
       </c>
@@ -1087,7 +1102,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>39</v>
       </c>
@@ -1095,7 +1110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>40</v>
       </c>
@@ -1103,7 +1118,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>41</v>
       </c>
@@ -1111,7 +1126,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>42</v>
       </c>
@@ -1119,7 +1134,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>43</v>
       </c>
@@ -1127,7 +1142,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>44</v>
       </c>
@@ -1135,7 +1150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>45</v>
       </c>
@@ -1143,7 +1158,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>46</v>
       </c>
@@ -1151,7 +1166,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>47</v>
       </c>
@@ -1159,7 +1174,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>48</v>
       </c>
@@ -1167,12 +1182,28 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="1">
+        <v>50</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="1">
+        <v>51</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmark Managment/Config.xlsx
+++ b/Benchmark Managment/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\P6_Software\Benchmark Managment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\GitHub\P6_Software\Benchmark Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C64BDE1-513A-472E-9C46-85EAA7C3B036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8A4911-EC9C-4CF5-A620-2F44C0A11A75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Number</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>A2068169</t>
+  </si>
+  <si>
+    <t>master_dfu_package.zip</t>
+  </si>
+  <si>
+    <t>client_dfu_package.zip</t>
+  </si>
+  <si>
+    <t>server_dfu_package.zip</t>
   </si>
 </sst>
 </file>
@@ -282,8 +291,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
@@ -297,8 +306,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:A5" totalsRowShown="0">
-  <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:A8" totalsRowShown="0">
+  <autoFilter ref="A1:A8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Firmware Selection"/>
   </tableColumns>
@@ -590,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,47 +629,62 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>A4F21E13</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>16D87965</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>E1A6E5BF</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>8E323CE7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>A0469D49</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>B6D10C96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
+        <v>52993E8A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
+        <v>6776E907</v>
       </c>
     </row>
   </sheetData>
@@ -673,9 +697,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2A9CFBD8-98C6-47B7-83CE-7D8A4658D465}">
           <x14:formula1>
-            <xm:f>Constants!$A$2:$A$5</xm:f>
+            <xm:f>Constants!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B4</xm:sqref>
+          <xm:sqref>B2:B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -687,13 +711,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -768,6 +792,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -779,6 +806,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
@@ -790,6 +820,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
       <c r="C8" s="1">
         <v>7</v>
       </c>

--- a/Benchmark Managment/Config.xlsx
+++ b/Benchmark Managment/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\GitHub\P6_Software\Benchmark Managment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8A4911-EC9C-4CF5-A620-2F44C0A11A75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B78AD0B-4454-4992-B9FE-CB997D15601A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>Number</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Group ID</t>
   </si>
   <si>
-    <t>BLE_MESH_Server_v1_0.zip</t>
-  </si>
-  <si>
-    <t>BLE_MESH_Client_v1_0.zip</t>
-  </si>
-  <si>
     <t>Firmware Selection</t>
   </si>
   <si>
@@ -220,6 +214,15 @@
   </si>
   <si>
     <t>server_dfu_package.zip</t>
+  </si>
+  <si>
+    <t>client_ble_dfu_package.zip</t>
+  </si>
+  <si>
+    <t>server_ble_dfu_package.zip</t>
+  </si>
+  <si>
+    <t>Node Id</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,11 +269,15 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom"/>
     </dxf>
@@ -291,15 +298,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dev ID">
       <calculatedColumnFormula>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Group ID"/>
+    <tableColumn id="5" xr3:uid="{BF33E156-0868-4FE7-AEB6-BAA4A1A6CAB8}" name="Node Id" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -319,16 +327,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D52" totalsRowShown="0">
   <autoFilter ref="C1:D52" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle4" displayName="Tabelle4" ref="F1:F26" totalsRowShown="0">
-  <autoFilter ref="F1:F26" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle4" displayName="Tabelle4" ref="F1:F27" totalsRowShown="0">
+  <autoFilter ref="F1:F27" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Groups"/>
   </tableColumns>
@@ -599,21 +607,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,65 +635,98 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>16D87965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7928FDBD</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>8E323CE7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70AAAF03</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>B6D10C96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5BEB2713</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>52993E8A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>EA97A00B</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>6776E907</v>
+        <v>E22399C0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -694,12 +736,24 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2A9CFBD8-98C6-47B7-83CE-7D8A4658D465}">
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$8</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F71A059C-8F2C-4129-B91B-F5697AA9FF5A}">
+          <x14:formula1>
+            <xm:f>Constants!$C$2:$C$52</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BED282B8-5A63-432E-8F33-CB3377B63A1C}">
+          <x14:formula1>
+            <xm:f>Constants!$F$2:$F$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:E6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -712,315 +766,315 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>25</v>
       </c>
@@ -1028,66 +1082,69 @@
         <v>11047935</v>
       </c>
       <c r="F26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>33</v>
       </c>
@@ -1095,148 +1152,148 @@
         <v>62688236</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>34</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>35</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>36</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <v>38</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>39</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
         <v>41</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
         <v>42</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <v>43</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
         <v>44</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
         <v>45</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
         <v>46</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <v>47</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
         <v>48</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
         <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>50</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>51</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmark Managment/Config.xlsx
+++ b/Benchmark Managment/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Managment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\GitHub\P6_Software\Benchmark Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B78AD0B-4454-4992-B9FE-CB997D15601A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19733C3-CDD2-415F-8AA4-4A118BFD1901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Number</t>
   </si>
@@ -276,13 +276,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -298,8 +298,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E6" totalsRowShown="0">
-  <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
@@ -307,7 +307,7 @@
       <calculatedColumnFormula>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Group ID"/>
-    <tableColumn id="5" xr3:uid="{BF33E156-0868-4FE7-AEB6-BAA4A1A6CAB8}" name="Node Id" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{BF33E156-0868-4FE7-AEB6-BAA4A1A6CAB8}" name="Node Id" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -327,8 +327,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D52" totalsRowShown="0">
   <autoFilter ref="C1:D52" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -607,22 +607,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,95 +639,79 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>7928FDBD</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>E5B83E8E</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>70AAAF03</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52993E8A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>5BEB2713</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>228D1458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>EA97A00B</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>B6D10C96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>E22399C0</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
+        <v>8E323CE7</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
+        <v>6776E907</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -741,19 +725,19 @@
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B6</xm:sqref>
+          <xm:sqref>B2:B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F71A059C-8F2C-4129-B91B-F5697AA9FF5A}">
           <x14:formula1>
             <xm:f>Constants!$C$2:$C$52</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A6</xm:sqref>
+          <xm:sqref>A2:A7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BED282B8-5A63-432E-8F33-CB3377B63A1C}">
           <x14:formula1>
             <xm:f>Constants!$F$2:$F$27</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:E6</xm:sqref>
+          <xm:sqref>D2:E7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -769,13 +753,13 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -789,7 +773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -803,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -817,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -831,7 +815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -845,7 +829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -859,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -873,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -887,7 +871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>8</v>
       </c>
@@ -898,7 +882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>9</v>
       </c>
@@ -909,7 +893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10</v>
       </c>
@@ -920,7 +904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>11</v>
       </c>
@@ -931,7 +915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>12</v>
       </c>
@@ -942,7 +926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>13</v>
       </c>
@@ -953,7 +937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>14</v>
       </c>
@@ -964,7 +948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>15</v>
       </c>
@@ -975,7 +959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>16</v>
       </c>
@@ -986,7 +970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>17</v>
       </c>
@@ -997,7 +981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>18</v>
       </c>
@@ -1008,7 +992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>19</v>
       </c>
@@ -1019,7 +1003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>20</v>
       </c>
@@ -1030,7 +1014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>21</v>
       </c>
@@ -1041,7 +1025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>22</v>
       </c>
@@ -1052,7 +1036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>23</v>
       </c>
@@ -1063,7 +1047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>24</v>
       </c>
@@ -1074,7 +1058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>25</v>
       </c>
@@ -1085,7 +1069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>26</v>
       </c>
@@ -1096,7 +1080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>27</v>
       </c>
@@ -1104,7 +1088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>28</v>
       </c>
@@ -1112,7 +1096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>29</v>
       </c>
@@ -1120,7 +1104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>30</v>
       </c>
@@ -1128,7 +1112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>31</v>
       </c>
@@ -1136,7 +1120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>32</v>
       </c>
@@ -1144,7 +1128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>33</v>
       </c>
@@ -1152,7 +1136,7 @@
         <v>62688236</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>34</v>
       </c>
@@ -1160,7 +1144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>35</v>
       </c>
@@ -1168,7 +1152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>36</v>
       </c>
@@ -1176,7 +1160,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>37</v>
       </c>
@@ -1184,7 +1168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>38</v>
       </c>
@@ -1192,7 +1176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>39</v>
       </c>
@@ -1200,7 +1184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>40</v>
       </c>
@@ -1208,7 +1192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>41</v>
       </c>
@@ -1216,7 +1200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>42</v>
       </c>
@@ -1224,7 +1208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>43</v>
       </c>
@@ -1232,7 +1216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>44</v>
       </c>
@@ -1240,7 +1224,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>45</v>
       </c>
@@ -1248,7 +1232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>46</v>
       </c>
@@ -1256,7 +1240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>47</v>
       </c>
@@ -1264,7 +1248,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>48</v>
       </c>
@@ -1272,7 +1256,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>49</v>
       </c>
@@ -1280,7 +1264,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>50</v>
       </c>
@@ -1288,7 +1272,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>51</v>
       </c>

--- a/Benchmark Managment/Config.xlsx
+++ b/Benchmark Managment/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\GitHub\P6_Software\Benchmark Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19733C3-CDD2-415F-8AA4-4A118BFD1901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628B66D5-786C-4F78-94B6-800495E4B67E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="14664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Number</t>
   </si>
@@ -298,8 +298,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
@@ -610,7 +610,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,76 +641,44 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>E5B83E8E</v>
+        <v>8E323CE7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>52993E8A</v>
+        <v>228D1458</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>228D1458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
         <v>B6D10C96</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>8E323CE7</v>
-      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>6776E907</v>
-      </c>
       <c r="E7" s="4"/>
     </row>
   </sheetData>
@@ -725,19 +693,19 @@
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B7</xm:sqref>
+          <xm:sqref>B2:B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F71A059C-8F2C-4129-B91B-F5697AA9FF5A}">
           <x14:formula1>
             <xm:f>Constants!$C$2:$C$52</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A7</xm:sqref>
+          <xm:sqref>A2:A4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BED282B8-5A63-432E-8F33-CB3377B63A1C}">
           <x14:formula1>
             <xm:f>Constants!$F$2:$F$27</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:E7</xm:sqref>
+          <xm:sqref>D2:E4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Benchmark Managment/Config.xlsx
+++ b/Benchmark Managment/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B78AD0B-4454-4992-B9FE-CB997D15601A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18000064-E81E-4CB7-B806-B62EB477774F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>Number</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>Node Id</t>
+  </si>
+  <si>
+    <t>13D67795</t>
+  </si>
+  <si>
+    <t>F5EA067B</t>
   </si>
 </sst>
 </file>
@@ -276,13 +282,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -298,8 +304,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E6" totalsRowShown="0">
-  <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E9" totalsRowShown="0">
+  <autoFilter ref="A1:E9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
@@ -307,7 +313,7 @@
       <calculatedColumnFormula>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Group ID"/>
-    <tableColumn id="5" xr3:uid="{BF33E156-0868-4FE7-AEB6-BAA4A1A6CAB8}" name="Node Id" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{BF33E156-0868-4FE7-AEB6-BAA4A1A6CAB8}" name="Node Id" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -324,11 +330,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D52" totalsRowShown="0">
-  <autoFilter ref="C1:D52" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D54" totalsRowShown="0">
+  <autoFilter ref="C1:D54" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -607,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,88 +650,142 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
         <v>7928FDBD</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>70AAAF03</v>
+        <v>E1A6E5BF</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>5BEB2713</v>
+        <v>DC94CD5B</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>EA97A00B</v>
+        <v>A4F21E13</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
+        <v>EA97A00B</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
+        <v>70AAAF03</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
+        <v>5BEB2713</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
         <v>E22399C0</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -741,19 +801,19 @@
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F71A059C-8F2C-4129-B91B-F5697AA9FF5A}">
-          <x14:formula1>
-            <xm:f>Constants!$C$2:$C$52</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A6</xm:sqref>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BED282B8-5A63-432E-8F33-CB3377B63A1C}">
           <x14:formula1>
             <xm:f>Constants!$F$2:$F$27</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:E6</xm:sqref>
+          <xm:sqref>D2:E9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE6EC81D-B64F-49DB-9E36-AE4995FCB78F}">
+          <x14:formula1>
+            <xm:f>Constants!$C$2:$C$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -763,10 +823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,6 +1356,22 @@
         <v>57</v>
       </c>
     </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="1">
+        <v>60</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <v>61</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="3">

--- a/Benchmark Managment/Config.xlsx
+++ b/Benchmark Managment/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18000064-E81E-4CB7-B806-B62EB477774F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849DE83-9A81-441F-8807-7733F306BB2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Number</t>
   </si>
@@ -229,16 +229,46 @@
   </si>
   <si>
     <t>F5EA067B</t>
+  </si>
+  <si>
+    <t>Ack</t>
+  </si>
+  <si>
+    <t>Add Payload Len</t>
+  </si>
+  <si>
+    <t>DST_MAC_1</t>
+  </si>
+  <si>
+    <t>DST_MAC_2</t>
+  </si>
+  <si>
+    <t>DST_MAC_3</t>
+  </si>
+  <si>
+    <t>DST_Node_1</t>
+  </si>
+  <si>
+    <t>DST_Node_2</t>
+  </si>
+  <si>
+    <t>DST_Node_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -280,7 +310,19 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom"/>
     </dxf>
@@ -304,16 +346,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E9" totalsRowShown="0">
-  <autoFilter ref="A1:E9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M3" totalsRowShown="0">
+  <autoFilter ref="A1:M3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dev ID">
-      <calculatedColumnFormula>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dev ID" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Group ID"/>
-    <tableColumn id="5" xr3:uid="{BF33E156-0868-4FE7-AEB6-BAA4A1A6CAB8}" name="Node Id" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{BF33E156-0868-4FE7-AEB6-BAA4A1A6CAB8}" name="Node Id" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00047FA1-B776-4161-9A5E-61CD291BFDE7}" name="Ack"/>
+    <tableColumn id="7" xr3:uid="{1127329E-899C-4626-93A4-7D09EBA3B157}" name="Add Payload Len"/>
+    <tableColumn id="8" xr3:uid="{FCC38A83-0D45-4F8E-B2DD-7BAAAA942F45}" name="DST_Node_1"/>
+    <tableColumn id="12" xr3:uid="{87E21627-A692-445A-A2CA-36DDBC7DA312}" name="DST_MAC_1" dataDxfId="1">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2A65C8C5-CF0D-4044-9EF1-81065B5FA9F5}" name="DST_Node_2"/>
+    <tableColumn id="13" xr3:uid="{A94D5D86-4273-4B8D-BBE2-8A2FD144DB48}" name="DST_MAC_2" dataDxfId="3">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{BA0488B7-4B48-4280-A530-2C5F93FB1981}" name="DST_Node_3"/>
+    <tableColumn id="10" xr3:uid="{A6B46851-DB9A-4D96-80B0-844DDE9BE874}" name="DST_MAC_3" dataDxfId="2">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -333,8 +389,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D54" totalsRowShown="0">
   <autoFilter ref="C1:D54" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D22" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,9 +682,16 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,17 +707,41 @@
       <c r="E1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>7928FDBD</v>
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>13D67795</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -662,17 +749,38 @@
       <c r="E2" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>120</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>7928FDBD</v>
+      </c>
+      <c r="K2">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>E1A6E5BF</v>
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>F5EA067B</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -680,116 +788,30 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>DC94CD5B</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>A4F21E13</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>EA97A00B</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>70AAAF03</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>7928FDBD</v>
+      </c>
+      <c r="K3">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>5BEB2713</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>E22399C0</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="M3">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -801,19 +823,19 @@
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B9</xm:sqref>
+          <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BED282B8-5A63-432E-8F33-CB3377B63A1C}">
           <x14:formula1>
             <xm:f>Constants!$F$2:$F$27</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:E9</xm:sqref>
+          <xm:sqref>D2:E3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE6EC81D-B64F-49DB-9E36-AE4995FCB78F}">
           <x14:formula1>
             <xm:f>Constants!$C$2:$C$54</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A9</xm:sqref>
+          <xm:sqref>A2:A3 H2:H3 J2:J3 L2:L3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -825,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
